--- a/biology/Botanique/Columelle_(botanique)/Columelle_(botanique).xlsx
+++ b/biology/Botanique/Columelle_(botanique)/Columelle_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La columelle est un tissu de la coiffe racinaire responsable de la perception de la gravité et du gravitropisme engendré. Les cellules spécialisées qui la composent sont des statocytes riches en statolithes. Elles sont générées par les cellules du centre de la coiffe, appelées chez les dicotylédones hypophyse[1].
-Pour les bryophytes, la columelle est la colonne stérile située au centre de la capsule[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La columelle est un tissu de la coiffe racinaire responsable de la perception de la gravité et du gravitropisme engendré. Les cellules spécialisées qui la composent sont des statocytes riches en statolithes. Elles sont générées par les cellules du centre de la coiffe, appelées chez les dicotylédones hypophyse.
+Pour les bryophytes, la columelle est la colonne stérile située au centre de la capsule.
 </t>
         </is>
       </c>
